--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -416,13 +416,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mon dortoir</v>
+        <v>ok</v>
       </c>
       <c r="B2">
-        <v>400000</v>
+        <v>2666666666666</v>
       </c>
       <c r="C2" s="1">
-        <v>45971.37490740741</v>
+        <v>45957.99990740741</v>
       </c>
     </row>
   </sheetData>
